--- a/biology/Botanique/Ensiculiferaceae/Ensiculiferaceae.xlsx
+++ b/biology/Botanique/Ensiculiferaceae/Ensiculiferaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Ensiculiferaceae sont une famille d'algues dinoflagellées de l’ordre des Peridiniales.
-Le genre type Ensiculifera a été découvert en 1967 dans les eaux du Golfe du Mexique[2].
+Le genre type Ensiculifera a été découvert en 1967 dans les eaux du Golfe du Mexique.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Ensiculiferaceae a été créée en 2020 par Zhun Li (d), Marc Gottschling (d), Kenneth Neil Mertens (d), Haifeng Gu (d) et Hyeon Ho Shin (d).
 </t>
@@ -543,10 +557,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Ensiculifera, dérivé du latin ensiculus, « épée ; épine », et du suffixe -fera, « qui porte » en référence à la présence d'une épine interne (« ensiculum ») attachée à la première plaque ceinturant[note 1] l'organisme[3]. Balech, descripteur du genre, donne les précisions suivantes « Le nom fait référence au processus ensiforme de la plaque 1. Ensiculifera est traité ici comme un nom féminin signifiant « porteur de poignard »[2] ».
-Cependant, bien que le nom du genre soit basé sur la présence d'une épine sur Ensiculifera, Li Zhun et ses collaborateurs précisent, dans leur étude de 2020[note 2], que : « la présence ou l'absence d'épines n'est pas un diagnostic sans équivoque pour différencier les genres Ensiculifera, Pentapharsodinium et Scrippsiella[note 3] »[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Ensiculifera, dérivé du latin ensiculus, « épée ; épine », et du suffixe -fera, « qui porte » en référence à la présence d'une épine interne (« ensiculum ») attachée à la première plaque ceinturant[note 1] l'organisme. Balech, descripteur du genre, donne les précisions suivantes « Le nom fait référence au processus ensiforme de la plaque 1. Ensiculifera est traité ici comme un nom féminin signifiant « porteur de poignard » ».
+Cependant, bien que le nom du genre soit basé sur la présence d'une épine sur Ensiculifera, Li Zhun et ses collaborateurs précisent, dans leur étude de 2020[note 2], que : « la présence ou l'absence d'épines n'est pas un diagnostic sans équivoque pour différencier les genres Ensiculifera, Pentapharsodinium et Scrippsiella[note 3] ».
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Liste des genres et espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (10 janvier 2022)[1]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (10 janvier 2022)
 Ensiculifera, Balech, 1967
 Ensiculifera angulata, Balech
 Ensiculifera carinata, Matsuoka, Kobayashi &amp; Gains
@@ -616,7 +634,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Zhun Li, Kenneth Neil Mertens, Marc Gottschling, Haifeng Gu, Sylvia Söhner, Andrea M Price, Fabienne Marret, Vera Pospelova, Kirsty F Smith, Consuelo Carbonell-Moore, Elisabeth Nézan, Gwenael Bilien et Hyeon Ho Shin, « Taxonomy and Molecular Phylogenetics of Ensiculiferaceae, fam. nov. (Peridiniales, Dinophyceae), with Consideration of their Life-history », Protist, Elsevier, vol. 171, no 5,‎ 1er septembre 2020, p. 125759 (ISSN 1434-4610 et 1618-0941, PMID 33126019, DOI 10.1016/J.PROTIS.2020.125759, lire en ligne)</t>
         </is>
